--- a/verification.xlsx
+++ b/verification.xlsx
@@ -32,19 +32,19 @@
     <t>JOB NAME</t>
   </si>
   <si>
+    <t>BATCH</t>
+  </si>
+  <si>
     <t>STATUS</t>
   </si>
   <si>
-    <t>JOB SCHEDULE</t>
-  </si>
-  <si>
     <t>event report exist?(number of event record)</t>
   </si>
   <si>
     <t>error report exist?(number of error record)</t>
   </si>
   <si>
-    <t xml:space="preserve">verification status  </t>
+    <t>PATH</t>
   </si>
   <si>
     <t>Result</t>
@@ -105,14 +105,57 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd-mm-yyyy"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="9">
@@ -188,45 +231,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="10.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -239,8 +289,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>44080.0</v>
+      <c r="B2" s="2" t="n">
+        <v>44096.93996449074</v>
       </c>
     </row>
     <row r="3">
@@ -254,28 +304,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="3">
         <v>11</v>
       </c>
     </row>
@@ -289,7 +339,7 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s" s="4">
+      <c r="D7" t="s" s="5">
         <v>13</v>
       </c>
       <c r="E7" t="s">
@@ -309,7 +359,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s" s="6">
+      <c r="D8" t="s" s="8">
         <v>16</v>
       </c>
       <c r="E8" t="s">
@@ -329,7 +379,7 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="D9" t="s" s="14">
         <v>20</v>
       </c>
       <c r="E9" t="s">
@@ -349,7 +399,7 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s" s="12">
+      <c r="D10" t="s" s="16">
         <v>16</v>
       </c>
       <c r="E10" t="s">
@@ -369,7 +419,7 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s" s="16">
+      <c r="D11" t="s" s="21">
         <v>13</v>
       </c>
       <c r="E11" t="s">
@@ -378,7 +428,7 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="23">
         <v>26</v>
       </c>
     </row>
@@ -392,7 +442,7 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s" s="19">
+      <c r="D12" t="s" s="25">
         <v>13</v>
       </c>
       <c r="E12" t="s">
@@ -401,14 +451,15 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="27">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="G12" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>